--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E9EB81-5318-4B8B-8DD1-F47938B6FE16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF6719-D16E-1345-8CE4-A4A2763A8B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24260" yWindow="-21100" windowWidth="33080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2EXT01_RNA" sheetId="1" r:id="rId1"/>
+    <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -51,76 +49,157 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B2C9D632-6E8E-4E4D-B849-13347E0E2396}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=52953c18-2f3e-41e4-9b64-e4b39a6f4685</t>
+        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A496038F-2B69-4D66-8B22-6FE82F201B1B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{4FEB2A0D-0D69-4C74-90F9-B60ACAD3FC0E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{B81587F8-24F1-4441-B5CF-797CFF5344EB}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{AB998CBF-C99C-4803-A8E4-15BF70F85D88}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{702BED30-27FB-4E09-A198-242406CDD04B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
+        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{6883E21B-C50F-46D5-8D5C-2A49F4678F53}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{A49430D7-EB67-44F6-A021-4724976004EE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{E3637547-CF61-40AD-92E9-13EEE0777411}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -128,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="112">
   <si>
     <t>Source Name</t>
   </si>
@@ -139,63 +218,27 @@
     <t>Parameter [Bio entity]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000012)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000012)</t>
-  </si>
-  <si>
     <t>Parameter [Biosource amount]</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000013)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000013)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction method]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000054)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000054)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000050)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000050)</t>
-  </si>
-  <si>
     <t>Parameter [Extraction buffer volume]</t>
   </si>
   <si>
     <t>Unit (#2)</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000051)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000051)</t>
-  </si>
-  <si>
     <t>Parameter [RNA quality check]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000062)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000062)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -412,15 +455,6 @@
     <t>at least some info is required, but not all terms</t>
   </si>
   <si>
-    <t>RNA (Transcriptomics)</t>
-  </si>
-  <si>
-    <t>DNA (Genomics)</t>
-  </si>
-  <si>
-    <t>Metabolites</t>
-  </si>
-  <si>
     <t>QIAGEN RNEasy</t>
   </si>
   <si>
@@ -442,21 +476,9 @@
     <t>user-specific</t>
   </si>
   <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_1000093</t>
-  </si>
-  <si>
-    <t>milligram</t>
-  </si>
-  <si>
     <t>UO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000022</t>
-  </si>
-  <si>
     <t>microliter</t>
   </si>
   <si>
@@ -479,6 +501,48 @@
   </si>
   <si>
     <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000013)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000013)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000054)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000054)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000050)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000051)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000051)</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000062)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000062)</t>
+  </si>
+  <si>
+    <t>Parameter [biosource amount]</t>
+  </si>
+  <si>
+    <t>Parameter [extraction method]</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer]</t>
+  </si>
+  <si>
+    <t>Parameter [extraction buffer volume]</t>
   </si>
 </sst>
 </file>
@@ -489,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,12 +575,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -649,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -689,12 +747,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
@@ -715,18 +783,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
@@ -767,30 +823,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}" name="annotationTableGoodDingo21" displayName="annotationTableGoodDingo21" ref="A1:V5" totalsRowShown="0">
-  <autoFilter ref="A1:V5" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}" name="annotationTableGoodDingo21" displayName="annotationTableGoodDingo21" ref="A1:S5" totalsRowShown="0">
+  <autoFilter ref="A1:S5" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}"/>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{17F12197-5A6B-46DB-84FA-86D856A5419D}" name="Parameter [Bio entity]"/>
-    <tableColumn id="4" xr3:uid="{044F2A2D-417B-41FA-92AE-BB4B1D633855}" name="Term Source REF (NFDI4PSO:0000012)"/>
-    <tableColumn id="5" xr3:uid="{AAF6B443-6DC8-4D9D-A569-3B18A6D8FB63}" name="Term Accession Number (NFDI4PSO:0000012)"/>
-    <tableColumn id="6" xr3:uid="{050A7623-C9D9-4D33-800C-74FC5AA0EBD1}" name="Parameter [Biosource amount]" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{65C787A8-736C-40DB-96A5-25DAA92794FB}" name="Unit" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{8E837113-D409-44C6-864F-8A02D277F170}" name="Term Source REF (NFDI4PSO:0000013)" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{F35F7D67-84F8-4E4F-8751-70B46C365E73}" name="Term Accession Number (NFDI4PSO:0000013)" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [Extraction method]" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (NFDI4PSO:0000054)" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (NFDI4PSO:0000054)" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [Extraction buffer]" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (NFDI4PSO:0000050)" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (NFDI4PSO:0000050)" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [Extraction buffer volume]" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (NFDI4PSO:0000051)" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (NFDI4PSO:0000051)" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (NFDI4PSO:0000062)" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (NFDI4PSO:0000062)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{01CDA9A9-3416-AB47-93ED-08D32CC9AFD5}" name="Parameter [biosource amount]"/>
+    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{856D9BE2-BD31-4969-93B3-60D776C90AFE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1095,7 +1148,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="613" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
@@ -1126,301 +1179,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.6640625" customWidth="1"/>
+    <col min="21" max="21" width="43.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="2">
+        <v>88</v>
+      </c>
+      <c r="L2" s="2">
         <v>200</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P2" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="P3" s="2" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>108</v>
-      </c>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1434,225 +1436,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1669,72 +1671,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
@@ -1744,21 +1746,21 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1768,215 +1770,215 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF6719-D16E-1345-8CE4-A4A2763A8B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E46D011-B49F-BB46-8ECD-95BE4636E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24260" yWindow="-21100" windowWidth="33080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5800" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>Source Name</t>
   </si>
@@ -215,24 +214,9 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>Parameter [Bio entity]</t>
-  </si>
-  <si>
-    <t>Parameter [Biosource amount]</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Parameter [Extraction method]</t>
-  </si>
-  <si>
-    <t>Parameter [Extraction buffer]</t>
-  </si>
-  <si>
-    <t>Parameter [Extraction buffer volume]</t>
-  </si>
-  <si>
     <t>Unit (#2)</t>
   </si>
   <si>
@@ -348,111 +332,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>TermSourceRef</t>
-  </si>
-  <si>
-    <t>Ontology</t>
-  </si>
-  <si>
-    <t>TAN</t>
-  </si>
-  <si>
-    <t>Content type (validation)</t>
-  </si>
-  <si>
-    <t>Notes during templating</t>
-  </si>
-  <si>
-    <t>Target term</t>
-  </si>
-  <si>
-    <t>Instruction</t>
-  </si>
-  <si>
-    <t>Requirement (m/o/n)</t>
-  </si>
-  <si>
-    <t>Value (cv/s/d)</t>
-  </si>
-  <si>
-    <t>Additional information</t>
-  </si>
-  <si>
-    <t>Review comments</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000012</t>
-  </si>
-  <si>
-    <t>NFDI4PSO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000012</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000013</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000013</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000054</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000054</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000050</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000050</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000051</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000051</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:0000062</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000062</t>
-  </si>
-  <si>
-    <t>Unit: microgram</t>
-  </si>
-  <si>
-    <t>Unit: Microliter</t>
-  </si>
-  <si>
-    <t>SAMPLES_molecule</t>
-  </si>
-  <si>
-    <t>Type of molecule that was extracted from the biological material. Include one of the following: total RNA, polyA RNA, cytoplasmic RNA, nuclear RNA, genomic DNA, protein, or other.</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>PROTOCOLS_extract protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe the protocols used to extract and prepare the material to be sequenced. </t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>at least some info is required, but not all terms</t>
   </si>
   <si>
     <t>QIAGEN RNEasy</t>
@@ -609,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -687,27 +566,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD2D2D2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD2D2D2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD2D2D2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD2D2D2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -741,12 +605,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -754,15 +612,6 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
@@ -802,6 +651,15 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -828,22 +686,22 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
     <tableColumn id="3" xr3:uid="{01CDA9A9-3416-AB47-93ED-08D32CC9AFD5}" name="Parameter [biosource amount]"/>
-    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{856D9BE2-BD31-4969-93B3-60D776C90AFE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1179,9 +1037,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -1216,55 +1074,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
       <c r="Q1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="S1" t="s">
         <v>1</v>
@@ -1272,108 +1130,108 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>46</v>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2">
         <v>200</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>46</v>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>46</v>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1383,13 +1241,13 @@
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1397,12 +1255,12 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>46</v>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1412,13 +1270,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1436,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1448,104 +1306,104 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1554,7 +1412,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1563,98 +1421,98 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1662,327 +1520,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E46D011-B49F-BB46-8ECD-95BE4636E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8E50C-11E9-0946-8DB1-F86F1720C2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1357,6 +1357,9 @@
         <v>11</v>
       </c>
       <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1365,24 +1368,36 @@
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1424,6 +1439,9 @@
         <v>19</v>
       </c>
       <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1435,8 +1453,10 @@
       <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1446,76 +1466,98 @@
       <c r="C17" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D8E50C-11E9-0946-8DB1-F86F1720C2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF6893-DEDB-CF4F-8271-567DF4CEC9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,15 +121,61 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+          <t xml:space="preserve">[Threaded comment]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comment:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
         </r>
       </text>
     </comment>
@@ -206,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>Source Name</t>
   </si>
@@ -304,21 +350,12 @@
     <t>annotationTableGoodDingo21</t>
   </si>
   <si>
-    <t>GEO</t>
-  </si>
-  <si>
     <t>Extraction</t>
   </si>
   <si>
     <t>RNA</t>
   </si>
   <si>
-    <t>er:GEO</t>
-  </si>
-  <si>
-    <t>mod:2EXT</t>
-  </si>
-  <si>
     <t>Jabeen</t>
   </si>
   <si>
@@ -364,9 +401,6 @@
     <t>http://purl.obolibrary.org/obo/UO_0000101</t>
   </si>
   <si>
-    <t>1.1.6</t>
-  </si>
-  <si>
     <t>Authors Role</t>
   </si>
   <si>
@@ -422,6 +456,9 @@
   </si>
   <si>
     <t>Parameter [extraction buffer volume]</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
   </si>
 </sst>
 </file>
@@ -432,7 +469,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +491,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1074,55 +1117,55 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S1" t="s">
         <v>1</v>
@@ -1132,106 +1175,106 @@
       <c r="B2" s="1"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2">
         <v>200</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1241,13 +1284,13 @@
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1257,10 +1300,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1270,13 +1313,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1295,7 +1338,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1325,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1341,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1361,13 +1404,11 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1404,17 +1445,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1448,10 +1485,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1461,10 +1498,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1525,7 +1562,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1534,7 +1571,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1543,7 +1580,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1552,7 +1589,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF6893-DEDB-CF4F-8271-567DF4CEC9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045A4E1-757C-3944-9B91-0D6F6B5842CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Source Name</t>
   </si>
@@ -459,6 +459,30 @@
   </si>
   <si>
     <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>RNA extraction protocol</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000173</t>
+  </si>
+  <si>
+    <t>rna-extraction.txt</t>
   </si>
 </sst>
 </file>
@@ -654,7 +678,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
@@ -724,27 +757,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}" name="annotationTableGoodDingo21" displayName="annotationTableGoodDingo21" ref="A1:S5" totalsRowShown="0">
-  <autoFilter ref="A1:S5" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}" name="annotationTableGoodDingo21" displayName="annotationTableGoodDingo21" ref="A1:W5" totalsRowShown="0">
+  <autoFilter ref="A1:W5" xr:uid="{B4158286-A58C-485B-8494-948292CED1F3}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
+    <tableColumn id="7" xr3:uid="{36986508-3946-614B-A69D-432676528FB9}" name="Protocol Type"/>
+    <tableColumn id="8" xr3:uid="{E1EF4395-C8E8-4F41-89FD-60A6E5D628C2}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{679AB003-9BD3-BC4F-A837-82FC90817363}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{ABE1DAF6-9493-7E42-8B79-1E09846FDF06}" name="Protocol REF" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{01CDA9A9-3416-AB47-93ED-08D32CC9AFD5}" name="Parameter [biosource amount]"/>
-    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{856D9BE2-BD31-4969-93B3-60D776C90AFE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1080,196 +1117,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.6640625" customWidth="1"/>
-    <col min="21" max="21" width="43.6640625" customWidth="1"/>
-    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="13"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="D2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="2">
         <v>200</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="13"/>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="13"/>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="13" t="s">
         <v>38</v>
       </c>
@@ -1277,28 +1351,38 @@
         <v>38</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="13"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D5" s="13" t="s">
         <v>38</v>
       </c>
@@ -1306,24 +1390,32 @@
         <v>38</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1337,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C045A4E1-757C-3944-9B91-0D6F6B5842CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F6CDD-89DA-BB42-8A73-8D3874574D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Source Name</t>
   </si>
@@ -350,9 +350,6 @@
     <t>annotationTableGoodDingo21</t>
   </si>
   <si>
-    <t>Extraction</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -483,6 +480,15 @@
   </si>
   <si>
     <t>rna-extraction.txt</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
+  </si>
+  <si>
+    <t>OBI</t>
   </si>
 </sst>
 </file>
@@ -1119,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1155,67 +1161,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="K1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
         <v>66</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>67</v>
       </c>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" t="s">
         <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
       </c>
       <c r="T1" t="s">
         <v>4</v>
       </c>
       <c r="U1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" t="s">
         <v>62</v>
-      </c>
-      <c r="V1" t="s">
-        <v>63</v>
       </c>
       <c r="W1" t="s">
         <v>1</v>
@@ -1223,140 +1229,140 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="2">
         <v>200</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="T3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1366,13 +1372,13 @@
       <c r="O4" s="1"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -1381,21 +1387,21 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1405,13 +1411,13 @@
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -1429,14 +1435,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1460,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -1476,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1537,30 +1544,40 @@
         <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,10 +1594,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1590,10 +1607,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1654,7 +1671,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1663,7 +1680,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1672,7 +1689,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1681,7 +1698,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6F6CDD-89DA-BB42-8A73-8D3874574D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FDE3FC-4554-4E17-BE6C-FC17D98EC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5780" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
@@ -48,203 +48,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B2C9D632-6E8E-4E4D-B849-13347E0E2396}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=52953c18-2f3e-41e4-9b64-e4b39a6f4685</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A496038F-2B69-4D66-8B22-6FE82F201B1B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{4FEB2A0D-0D69-4C74-90F9-B60ACAD3FC0E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{B81587F8-24F1-4441-B5CF-797CFF5344EB}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{AB998CBF-C99C-4803-A8E4-15BF70F85D88}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{702BED30-27FB-4E09-A198-242406CDD04B}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{6883E21B-C50F-46D5-8D5C-2A49F4678F53}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{A49430D7-EB67-44F6-A021-4724976004EE}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{E3637547-CF61-40AD-92E9-13EEE0777411}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -252,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>Source Name</t>
   </si>
@@ -489,6 +362,12 @@
   </si>
   <si>
     <t>OBI</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
   </si>
 </sst>
 </file>
@@ -499,7 +378,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,12 +400,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -686,61 +559,61 @@
   </cellStyles>
   <dxfs count="19">
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,26 +641,26 @@
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{DF71AA61-E923-4AAC-A8BA-9D46DCD4BAC1}" name="Source Name"/>
     <tableColumn id="7" xr3:uid="{36986508-3946-614B-A69D-432676528FB9}" name="Protocol Type"/>
-    <tableColumn id="8" xr3:uid="{E1EF4395-C8E8-4F41-89FD-60A6E5D628C2}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{679AB003-9BD3-BC4F-A837-82FC90817363}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
-    <tableColumn id="23" xr3:uid="{ABE1DAF6-9493-7E42-8B79-1E09846FDF06}" name="Protocol REF" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{E1EF4395-C8E8-4F41-89FD-60A6E5D628C2}" name="Term Source REF (DPBO:1000161)" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{679AB003-9BD3-BC4F-A837-82FC90817363}" name="Term Accession Number (DPBO:1000161)" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{ABE1DAF6-9493-7E42-8B79-1E09846FDF06}" name="Protocol REF" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{01CDA9A9-3416-AB47-93ED-08D32CC9AFD5}" name="Parameter [biosource amount]"/>
-    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BAC6A063-7015-3F4C-AA31-FE6D4EED5537}" name="Unit" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{DD1D8617-8787-564F-8CD5-3ADC109D95F6}" name="Term Source REF (DPBO:0000013)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{B4A4946D-047D-A44E-BC9C-012ECBA29F99}" name="Term Accession Number (DPBO:0000013)" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{5B0E65CF-C995-497E-A9B1-46CBAABE7533}" name="Parameter [extraction method]" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{8A603FB3-4968-4A5D-B901-9860EBB49248}" name="Term Source REF (DPBO:0000054)" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{40BF0941-4CDD-4A4A-90EA-105F1A0B0A75}" name="Term Accession Number (DPBO:0000054)" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{C7FECB2E-3E83-4B36-A79A-5DD2E0969A21}" name="Parameter [extraction buffer]" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{4CFA59D3-CCD3-4F3D-A274-03368720E7F7}" name="Term Source REF (DPBO:0000050)" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{CC905BDC-A423-40BD-B9D8-837430F6C524}" name="Term Accession Number (DPBO:0000050)" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{587AE11A-6B65-4A00-A720-B1D3F462F3E9}" name="Parameter [extraction buffer volume]" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{83EC4181-CC19-4F29-A712-25F088C0A200}" name="Unit (#2)" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{C8DB36B5-D383-4FE8-A45D-DE3DFFB70696}" name="Term Source REF (DPBO:0000051)" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{D4A6ACFF-B576-475A-ADA9-56593688C0D2}" name="Term Accession Number (DPBO:0000051)" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{BD9EA8B2-AAD2-413D-B047-B818FDF6F989}" name="Parameter [RNA quality check]" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{CDCB4760-ECBB-46C6-933E-1C2538B373D9}" name="Term Source REF (DPBO:0000062)" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{0B5A8094-8189-4B67-A9E1-E8E9D6761348}" name="Term Accession Number (DPBO:0000062)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{856D9BE2-BD31-4969-93B3-60D776C90AFE}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1092,7 +965,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="662" row="2">
@@ -1125,38 +998,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>72</v>
       </c>
@@ -1288,7 +1161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
         <v>37</v>
@@ -1345,7 +1218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
         <v>37</v>
@@ -1384,7 +1257,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
         <v>37</v>
@@ -1435,18 +1308,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1478,7 +1351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1494,7 +1367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1503,34 +1376,40 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1539,7 +1418,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1433,7 @@
       </c>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1446,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1459,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1468,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1481,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1494,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1503,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1512,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1642,7 +1521,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1651,7 +1530,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1660,7 +1539,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1669,7 +1548,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -1678,7 +1557,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1566,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -1696,7 +1575,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FDE3FC-4554-4E17-BE6C-FC17D98EC8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1568FE8-7F8F-4F29-99A6-C8CBCE8786D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,75 +48,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B2C9D632-6E8E-4E4D-B849-13347E0E2396}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=52953c18-2f3e-41e4-9b64-e4b39a6f4685</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{A496038F-2B69-4D66-8B22-6FE82F201B1B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{4FEB2A0D-0D69-4C74-90F9-B60ACAD3FC0E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{B81587F8-24F1-4441-B5CF-797CFF5344EB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{AB998CBF-C99C-4803-A8E4-15BF70F85D88}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{702BED30-27FB-4E09-A198-242406CDD04B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{6883E21B-C50F-46D5-8D5C-2A49F4678F53}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{A49430D7-EB67-44F6-A021-4724976004EE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{E3637547-CF61-40AD-92E9-13EEE0777411}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t>Source Name</t>
   </si>
@@ -362,12 +362,6 @@
   </si>
   <si>
     <t>OBI</t>
-  </si>
-  <si>
-    <t>GEO</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
   </si>
 </sst>
 </file>
@@ -554,8 +548,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -998,38 +992,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="33" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="26.88671875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
         <v>72</v>
       </c>
@@ -1161,7 +1155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
         <v>37</v>
@@ -1218,7 +1212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
         <v>37</v>
@@ -1257,7 +1251,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
         <v>37</v>
@@ -1308,18 +1302,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F787C66-F665-436B-AEA3-3426D484FEC5}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1327,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +1345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1376,40 +1370,34 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1418,7 +1406,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1428,12 +1416,10 @@
       <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1441,12 +1427,10 @@
         <v>77</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1454,12 +1438,10 @@
         <v>78</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
@@ -1468,7 +1450,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1463,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1476,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1485,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1494,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1503,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1530,7 +1512,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1521,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1548,7 +1530,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -1557,7 +1539,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1566,7 +1548,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>49</v>
       </c>
@@ -1575,7 +1557,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>

--- a/templates/dataplant/2EXT01_RNA.xlsx
+++ b/templates/dataplant/2EXT01_RNA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1568FE8-7F8F-4F29-99A6-C8CBCE8786D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2881128B-7BD4-4ACD-A134-318E04741078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2184" yWindow="1236" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rna_extraction" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>Source Name</t>
   </si>
@@ -358,10 +358,7 @@
     <t>extraction</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
-  </si>
-  <si>
-    <t>OBI</t>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1300,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1434,9 +1431,7 @@
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
